--- a/medicine/Enfance/Prix_Sobrier-Arnould/Prix_Sobrier-Arnould.xlsx
+++ b/medicine/Enfance/Prix_Sobrier-Arnould/Prix_Sobrier-Arnould.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Sobrier-Arnould, de la fondation du même nom, est un ancien prix annuel de littérature, créé en 1891 par l'Académie française et « décerné par moitié à deux auteurs des meilleurs ouvrages en littérature morale et instructive pour la jeunesse. Les deux auteurs devront être Français »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Sobrier-Arnould, de la fondation du même nom, est un ancien prix annuel de littérature, créé en 1891 par l'Académie française et « décerné par moitié à deux auteurs des meilleurs ouvrages en littérature morale et instructive pour la jeunesse. Les deux auteurs devront être Français ».
 </t>
         </is>
       </c>
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">De 1895 à 1939
+          <t>De 1895 à 1939</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1895 :
 Lucien Biart pour La conquête d’une patrie. Le Pensativo
 Antelme Édouard Chaignet pour Les héros et les héroïnes d’Homère
@@ -533,7 +551,7 @@
 Maurice Maindron pour Récits du temps passé
 Jacques Rocafort (1860-1939) pour L’éducation morale au lycée
 1901 :
-Henri Ouvré (1824-1890)[2] pour Les formes littéraires de la pensée grecque
+Henri Ouvré (1824-1890) pour Les formes littéraires de la pensée grecque
 Abbé Jules Paquier (1864-1932) pour Jérôme Aléandre, de sa naissance à la fin de son séjour à Brindes (1480-1529)
 1902 :
 Henri Ferté (1821-1903) pour Rollin, sa vie et ses œuvres
@@ -674,7 +692,43 @@
 Mme A. Pouzin-Coffin pour Le plus beau des voyages
 Marie-Paule Salonne pour Une nuit dans sa maison
 Sebastiano Visconti Prasca pour Jeanne d'Arc
-De 1940 à 1984
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prix_Sobrier-Arnould</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sobrier-Arnould</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>De 1940 à 1984</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1940 :
 Rayliane de La Falaise pour Caraja-Kou
 Commandant Verdun pour La Guerre souterraine et L'Escadron cyclone
